--- a/data/pca/factorExposure/factorExposure_2015-07-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02085191539649882</v>
+        <v>0.01340211002197618</v>
       </c>
       <c r="C2">
-        <v>-0.02636580760032901</v>
+        <v>-0.04714753367051178</v>
       </c>
       <c r="D2">
-        <v>-0.1284545502997525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1394786400594116</v>
+      </c>
+      <c r="E2">
+        <v>0.003784690035272503</v>
+      </c>
+      <c r="F2">
+        <v>0.01483134150566317</v>
+      </c>
+      <c r="G2">
+        <v>-0.1313112401288605</v>
+      </c>
+      <c r="H2">
+        <v>0.02717939891712171</v>
+      </c>
+      <c r="I2">
+        <v>0.03348273673870934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.01035603566845511</v>
+        <v>-0.01121160128265991</v>
       </c>
       <c r="C3">
-        <v>-0.02455771411029743</v>
+        <v>-0.01294375525972078</v>
       </c>
       <c r="D3">
-        <v>-0.013792843590375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01311695982538459</v>
+      </c>
+      <c r="E3">
+        <v>-0.01712460200426971</v>
+      </c>
+      <c r="F3">
+        <v>-0.01082090733946529</v>
+      </c>
+      <c r="G3">
+        <v>0.0007789424448249704</v>
+      </c>
+      <c r="H3">
+        <v>0.009805917119072192</v>
+      </c>
+      <c r="I3">
+        <v>0.006391129399862023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03498209078933571</v>
+        <v>0.01901552832914892</v>
       </c>
       <c r="C4">
-        <v>-0.07084258136443942</v>
+        <v>-0.09268460927166788</v>
       </c>
       <c r="D4">
-        <v>-0.1403328387404374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1496004245206727</v>
+      </c>
+      <c r="E4">
+        <v>-0.01445438840150232</v>
+      </c>
+      <c r="F4">
+        <v>0.09283205045063557</v>
+      </c>
+      <c r="G4">
+        <v>-0.01395373909543902</v>
+      </c>
+      <c r="H4">
+        <v>0.03931064470319418</v>
+      </c>
+      <c r="I4">
+        <v>0.01749116488851359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02684953616204398</v>
+        <v>0.02964740412562474</v>
       </c>
       <c r="C6">
-        <v>-0.0154574257823636</v>
+        <v>-0.03024720880856762</v>
       </c>
       <c r="D6">
-        <v>-0.1452382591764641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1287213449538044</v>
+      </c>
+      <c r="E6">
+        <v>0.04017852245418056</v>
+      </c>
+      <c r="F6">
+        <v>0.04802088205420396</v>
+      </c>
+      <c r="G6">
+        <v>-0.03597911905319535</v>
+      </c>
+      <c r="H6">
+        <v>0.02254382312619188</v>
+      </c>
+      <c r="I6">
+        <v>-0.01833934939463161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.006992698131520975</v>
+        <v>0.009713428459077902</v>
       </c>
       <c r="C7">
-        <v>-0.02410924619183703</v>
+        <v>-0.03361353087889812</v>
       </c>
       <c r="D7">
-        <v>-0.1141176707812212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.1066906571464431</v>
+      </c>
+      <c r="E7">
+        <v>0.04812951683070398</v>
+      </c>
+      <c r="F7">
+        <v>0.006840538671758179</v>
+      </c>
+      <c r="G7">
+        <v>-0.02260943764912422</v>
+      </c>
+      <c r="H7">
+        <v>0.06162319259929194</v>
+      </c>
+      <c r="I7">
+        <v>-0.02802607919740112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.001230177857709529</v>
+        <v>-0.005858108619838078</v>
       </c>
       <c r="C8">
-        <v>-0.02685867581064547</v>
+        <v>-0.03352796495942816</v>
       </c>
       <c r="D8">
-        <v>-0.08260442002482887</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08245448513702176</v>
+      </c>
+      <c r="E8">
+        <v>0.0197796989700579</v>
+      </c>
+      <c r="F8">
+        <v>0.04030991086001529</v>
+      </c>
+      <c r="G8">
+        <v>-0.06339857346809812</v>
+      </c>
+      <c r="H8">
+        <v>-0.01795266834282238</v>
+      </c>
+      <c r="I8">
+        <v>-0.02544097599512386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03322155260249871</v>
+        <v>0.01684230904415374</v>
       </c>
       <c r="C9">
-        <v>-0.06429019345036373</v>
+        <v>-0.0816251011721582</v>
       </c>
       <c r="D9">
-        <v>-0.1315214021117975</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1235786346655942</v>
+      </c>
+      <c r="E9">
+        <v>-0.005683761794046796</v>
+      </c>
+      <c r="F9">
+        <v>0.05619032747689055</v>
+      </c>
+      <c r="G9">
+        <v>-0.004761428699112081</v>
+      </c>
+      <c r="H9">
+        <v>0.04669137950900946</v>
+      </c>
+      <c r="I9">
+        <v>0.004650662718236448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1626749739047918</v>
+        <v>0.2241424465109075</v>
       </c>
       <c r="C10">
-        <v>0.1711291954628424</v>
+        <v>0.1070648363619135</v>
       </c>
       <c r="D10">
-        <v>-0.01654232256205752</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.00020953159994966</v>
+      </c>
+      <c r="E10">
+        <v>-0.02293447370395298</v>
+      </c>
+      <c r="F10">
+        <v>0.03856766150840812</v>
+      </c>
+      <c r="G10">
+        <v>0.02218861380293502</v>
+      </c>
+      <c r="H10">
+        <v>-0.06584132644614284</v>
+      </c>
+      <c r="I10">
+        <v>-0.1264719941394118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0205148150649069</v>
+        <v>0.01013830575212661</v>
       </c>
       <c r="C11">
-        <v>-0.04321110173699218</v>
+        <v>-0.05287937022700931</v>
       </c>
       <c r="D11">
-        <v>-0.05225924566643147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04829002248418139</v>
+      </c>
+      <c r="E11">
+        <v>0.01936432476775196</v>
+      </c>
+      <c r="F11">
+        <v>-0.01071108899328918</v>
+      </c>
+      <c r="G11">
+        <v>-0.01231747881936191</v>
+      </c>
+      <c r="H11">
+        <v>0.04223850704269756</v>
+      </c>
+      <c r="I11">
+        <v>0.02339739377712928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02280976075790677</v>
+        <v>0.01191690139190751</v>
       </c>
       <c r="C12">
-        <v>-0.04151100704150602</v>
+        <v>-0.04902064338944664</v>
       </c>
       <c r="D12">
-        <v>-0.065708019326692</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05182910092616393</v>
+      </c>
+      <c r="E12">
+        <v>0.01492822757613175</v>
+      </c>
+      <c r="F12">
+        <v>-0.01396928178052135</v>
+      </c>
+      <c r="G12">
+        <v>-0.005142125278796726</v>
+      </c>
+      <c r="H12">
+        <v>0.07266537418260959</v>
+      </c>
+      <c r="I12">
+        <v>0.009628551029557068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005732185545149149</v>
+        <v>0.006102186309487482</v>
       </c>
       <c r="C13">
-        <v>-0.02994725282932697</v>
+        <v>-0.04627208349665371</v>
       </c>
       <c r="D13">
-        <v>-0.1556060518109636</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1564444857793985</v>
+      </c>
+      <c r="E13">
+        <v>0.03694640900150133</v>
+      </c>
+      <c r="F13">
+        <v>0.0333476807567454</v>
+      </c>
+      <c r="G13">
+        <v>-0.04811551849369781</v>
+      </c>
+      <c r="H13">
+        <v>0.05767899620730229</v>
+      </c>
+      <c r="I13">
+        <v>-0.05620908025370163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003697840453966414</v>
+        <v>0.0008720524632507404</v>
       </c>
       <c r="C14">
-        <v>-0.02104430687364628</v>
+        <v>-0.02752200004921694</v>
       </c>
       <c r="D14">
-        <v>-0.1080832817666101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1046038883586396</v>
+      </c>
+      <c r="E14">
+        <v>0.0239629055568845</v>
+      </c>
+      <c r="F14">
+        <v>0.02572157735668585</v>
+      </c>
+      <c r="G14">
+        <v>-0.06096391356500781</v>
+      </c>
+      <c r="H14">
+        <v>0.09643644332534849</v>
+      </c>
+      <c r="I14">
+        <v>-0.02548997076524046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.0008184855895120559</v>
+        <v>-0.0004917782077312953</v>
       </c>
       <c r="C15">
-        <v>-0.01005635298758533</v>
+        <v>-0.01847293622534118</v>
       </c>
       <c r="D15">
-        <v>-0.02172108154308503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0508511366134435</v>
+      </c>
+      <c r="E15">
+        <v>0.005108639287270005</v>
+      </c>
+      <c r="F15">
+        <v>0.002105406013633162</v>
+      </c>
+      <c r="G15">
+        <v>-0.02427857933112391</v>
+      </c>
+      <c r="H15">
+        <v>0.008312664763624928</v>
+      </c>
+      <c r="I15">
+        <v>0.02114185343184206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02042804669683792</v>
+        <v>0.01102055598479121</v>
       </c>
       <c r="C16">
-        <v>-0.03990741384202675</v>
+        <v>-0.04810449133512079</v>
       </c>
       <c r="D16">
-        <v>-0.0626583696574611</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.04894390127730439</v>
+      </c>
+      <c r="E16">
+        <v>0.01914758591050809</v>
+      </c>
+      <c r="F16">
+        <v>-0.006494979402777563</v>
+      </c>
+      <c r="G16">
+        <v>-0.00507766300003504</v>
+      </c>
+      <c r="H16">
+        <v>0.05081939142161127</v>
+      </c>
+      <c r="I16">
+        <v>0.02469048451725046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.007495552063134554</v>
+        <v>0.0016381717505875</v>
       </c>
       <c r="C19">
-        <v>-0.02355474656037159</v>
+        <v>-0.02184492769663808</v>
       </c>
       <c r="D19">
-        <v>-0.1368831183044453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08767361673265665</v>
+      </c>
+      <c r="E19">
+        <v>-0.01853562671539195</v>
+      </c>
+      <c r="F19">
+        <v>0.01183782288611826</v>
+      </c>
+      <c r="G19">
+        <v>-0.0417007820151892</v>
+      </c>
+      <c r="H19">
+        <v>0.06475292915408434</v>
+      </c>
+      <c r="I19">
+        <v>-0.048016743456787</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0043410626686693</v>
+        <v>0.004380466920313948</v>
       </c>
       <c r="C20">
-        <v>-0.0270471692642692</v>
+        <v>-0.03723392272538215</v>
       </c>
       <c r="D20">
-        <v>-0.09232711521401447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09950932732627918</v>
+      </c>
+      <c r="E20">
+        <v>0.003601775465479173</v>
+      </c>
+      <c r="F20">
+        <v>0.02737407380311624</v>
+      </c>
+      <c r="G20">
+        <v>-0.01961131287947246</v>
+      </c>
+      <c r="H20">
+        <v>0.05018991707454906</v>
+      </c>
+      <c r="I20">
+        <v>-0.01154663517549527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.006750104756131065</v>
+        <v>0.003732545553571119</v>
       </c>
       <c r="C21">
-        <v>-0.03380421121407833</v>
+        <v>-0.04204559535443717</v>
       </c>
       <c r="D21">
-        <v>-0.1727057683000593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1437796779841335</v>
+      </c>
+      <c r="E21">
+        <v>-0.004504210056329387</v>
+      </c>
+      <c r="F21">
+        <v>0.07507075135441432</v>
+      </c>
+      <c r="G21">
+        <v>-0.07405117762213249</v>
+      </c>
+      <c r="H21">
+        <v>0.1456533654835512</v>
+      </c>
+      <c r="I21">
+        <v>-0.1128076733521305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001147753431790274</v>
+        <v>-0.007942485367900064</v>
       </c>
       <c r="C22">
-        <v>-0.05971996605278486</v>
+        <v>-0.07178541578702648</v>
       </c>
       <c r="D22">
-        <v>-0.1986354939898883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.2405858846410568</v>
+      </c>
+      <c r="E22">
+        <v>0.04185401662581405</v>
+      </c>
+      <c r="F22">
+        <v>0.02437261380039871</v>
+      </c>
+      <c r="G22">
+        <v>-0.1882985390108738</v>
+      </c>
+      <c r="H22">
+        <v>-0.4871130344112558</v>
+      </c>
+      <c r="I22">
+        <v>0.1257857840323025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.0009308435454268514</v>
+        <v>-0.007520380321922436</v>
       </c>
       <c r="C23">
-        <v>-0.06019493379898694</v>
+        <v>-0.07269781442201081</v>
       </c>
       <c r="D23">
-        <v>-0.1982186559618685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.2412357042987765</v>
+      </c>
+      <c r="E23">
+        <v>0.03882564742538226</v>
+      </c>
+      <c r="F23">
+        <v>0.02364566303593162</v>
+      </c>
+      <c r="G23">
+        <v>-0.1869654081470062</v>
+      </c>
+      <c r="H23">
+        <v>-0.4869246444245983</v>
+      </c>
+      <c r="I23">
+        <v>0.1276849763969216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02602736540689634</v>
+        <v>0.01101560247413131</v>
       </c>
       <c r="C24">
-        <v>-0.05742520936181065</v>
+        <v>-0.06437244611785847</v>
       </c>
       <c r="D24">
-        <v>-0.0719082969573608</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0577253847625971</v>
+      </c>
+      <c r="E24">
+        <v>0.02230559019153622</v>
+      </c>
+      <c r="F24">
+        <v>-0.002889303259521244</v>
+      </c>
+      <c r="G24">
+        <v>-0.01939316726041445</v>
+      </c>
+      <c r="H24">
+        <v>0.07150635271522851</v>
+      </c>
+      <c r="I24">
+        <v>0.01998488512444529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02949768915392917</v>
+        <v>0.0150984415923999</v>
       </c>
       <c r="C25">
-        <v>-0.04852739599948152</v>
+        <v>-0.05987796059907881</v>
       </c>
       <c r="D25">
-        <v>-0.06587315733822069</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05525284284919814</v>
+      </c>
+      <c r="E25">
+        <v>0.009760373864958354</v>
+      </c>
+      <c r="F25">
+        <v>-0.006194643063135863</v>
+      </c>
+      <c r="G25">
+        <v>-0.004153072730631049</v>
+      </c>
+      <c r="H25">
+        <v>0.04366079699363652</v>
+      </c>
+      <c r="I25">
+        <v>0.01215911678288001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.005310103781070372</v>
+        <v>0.006356287847438537</v>
       </c>
       <c r="C26">
-        <v>-0.01666403874733866</v>
+        <v>-0.02394728421678794</v>
       </c>
       <c r="D26">
-        <v>-0.08256367031795669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07232417278225209</v>
+      </c>
+      <c r="E26">
+        <v>0.01843720047738208</v>
+      </c>
+      <c r="F26">
+        <v>0.02666287118311432</v>
+      </c>
+      <c r="G26">
+        <v>-0.03158640672406075</v>
+      </c>
+      <c r="H26">
+        <v>0.07253447064544483</v>
+      </c>
+      <c r="I26">
+        <v>-0.04939061849634237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2464331148287788</v>
+        <v>0.3165539070970536</v>
       </c>
       <c r="C28">
-        <v>0.2137758874493427</v>
+        <v>0.1199969516399541</v>
       </c>
       <c r="D28">
-        <v>-0.02327577631587554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.009204075545184327</v>
+      </c>
+      <c r="E28">
+        <v>-0.04962448305381482</v>
+      </c>
+      <c r="F28">
+        <v>0.03994226410723752</v>
+      </c>
+      <c r="G28">
+        <v>-0.005826518359330245</v>
+      </c>
+      <c r="H28">
+        <v>-0.04108740619198308</v>
+      </c>
+      <c r="I28">
+        <v>-0.1339791380492061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001956346677269078</v>
+        <v>-0.0004836552356767036</v>
       </c>
       <c r="C29">
-        <v>-0.0222761140718193</v>
+        <v>-0.02953667931522572</v>
       </c>
       <c r="D29">
-        <v>-0.1026968218007513</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1018403150984087</v>
+      </c>
+      <c r="E29">
+        <v>0.03558774974777551</v>
+      </c>
+      <c r="F29">
+        <v>0.03352429076263247</v>
+      </c>
+      <c r="G29">
+        <v>-0.05214944245227805</v>
+      </c>
+      <c r="H29">
+        <v>0.09963570511633955</v>
+      </c>
+      <c r="I29">
+        <v>-0.02113692870784412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02278904553322951</v>
+        <v>0.01732155794745692</v>
       </c>
       <c r="C30">
-        <v>-0.06151782232134149</v>
+        <v>-0.08120322934624698</v>
       </c>
       <c r="D30">
-        <v>-0.1664849180239322</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1649360046831883</v>
+      </c>
+      <c r="E30">
+        <v>0.04097911592056848</v>
+      </c>
+      <c r="F30">
+        <v>0.03350638272733981</v>
+      </c>
+      <c r="G30">
+        <v>-0.04295514622783399</v>
+      </c>
+      <c r="H30">
+        <v>0.02667970092272118</v>
+      </c>
+      <c r="I30">
+        <v>0.06394059967494485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04361914186749649</v>
+        <v>0.01414983300577672</v>
       </c>
       <c r="C31">
-        <v>-0.08392108673775842</v>
+        <v>-0.09071073458361446</v>
       </c>
       <c r="D31">
-        <v>-0.08257965279090472</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04767941283559853</v>
+      </c>
+      <c r="E31">
+        <v>0.007990732263504899</v>
+      </c>
+      <c r="F31">
+        <v>0.01702643708995091</v>
+      </c>
+      <c r="G31">
+        <v>-0.02082344768500027</v>
+      </c>
+      <c r="H31">
+        <v>0.04819334274038374</v>
+      </c>
+      <c r="I31">
+        <v>-0.06867311373563413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01924174911340198</v>
+        <v>0.01185636285406528</v>
       </c>
       <c r="C32">
-        <v>-0.03649240408726227</v>
+        <v>-0.041220001774632</v>
       </c>
       <c r="D32">
-        <v>-0.1005695782859948</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1075264610869512</v>
+      </c>
+      <c r="E32">
+        <v>-0.009714177268871164</v>
+      </c>
+      <c r="F32">
+        <v>0.04410598030478532</v>
+      </c>
+      <c r="G32">
+        <v>-0.03288899160737332</v>
+      </c>
+      <c r="H32">
+        <v>0.02814694611734138</v>
+      </c>
+      <c r="I32">
+        <v>-0.06716833103532216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01598569096981203</v>
+        <v>0.009268508467211329</v>
       </c>
       <c r="C33">
-        <v>-0.04307869356386414</v>
+        <v>-0.05616371080965928</v>
       </c>
       <c r="D33">
-        <v>-0.1525782508848934</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1335424330808737</v>
+      </c>
+      <c r="E33">
+        <v>0.01066053677167276</v>
+      </c>
+      <c r="F33">
+        <v>0.02682462592978309</v>
+      </c>
+      <c r="G33">
+        <v>-0.03948592961786541</v>
+      </c>
+      <c r="H33">
+        <v>0.05093991638092095</v>
+      </c>
+      <c r="I33">
+        <v>-0.02563035777522358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02526672060837464</v>
+        <v>0.009378827028078681</v>
       </c>
       <c r="C34">
-        <v>-0.05780803742124811</v>
+        <v>-0.06209334262554741</v>
       </c>
       <c r="D34">
-        <v>-0.05105904149684637</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03544996319275966</v>
+      </c>
+      <c r="E34">
+        <v>0.02864834572227686</v>
+      </c>
+      <c r="F34">
+        <v>-0.03358204442572462</v>
+      </c>
+      <c r="G34">
+        <v>-0.01413455140049594</v>
+      </c>
+      <c r="H34">
+        <v>0.0547192267961387</v>
+      </c>
+      <c r="I34">
+        <v>-0.003902787589037773</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001199951418376936</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004508484379115545</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01509479570219277</v>
+      </c>
+      <c r="E35">
+        <v>0.003026369952663185</v>
+      </c>
+      <c r="F35">
+        <v>0.001281409221577034</v>
+      </c>
+      <c r="G35">
+        <v>-0.002806489883981283</v>
+      </c>
+      <c r="H35">
+        <v>0.009059559550295688</v>
+      </c>
+      <c r="I35">
+        <v>0.005081807634213606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01039352780252188</v>
+        <v>0.01097653766852209</v>
       </c>
       <c r="C36">
-        <v>-0.004606721836341534</v>
+        <v>-0.0183390543852016</v>
       </c>
       <c r="D36">
-        <v>-0.1010806869567488</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.08431741447088997</v>
+      </c>
+      <c r="E36">
+        <v>0.005405971458482432</v>
+      </c>
+      <c r="F36">
+        <v>0.03669129622030225</v>
+      </c>
+      <c r="G36">
+        <v>-0.02588077863419749</v>
+      </c>
+      <c r="H36">
+        <v>0.05611801316693222</v>
+      </c>
+      <c r="I36">
+        <v>-0.0291878496170575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.008785656345872691</v>
+        <v>0.01527854404050919</v>
       </c>
       <c r="C38">
-        <v>-0.009794167123936106</v>
+        <v>-0.0165236555721728</v>
       </c>
       <c r="D38">
-        <v>-0.0966813954186619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.08752094649561939</v>
+      </c>
+      <c r="E38">
+        <v>-0.01367620076709725</v>
+      </c>
+      <c r="F38">
+        <v>-0.007526601813568462</v>
+      </c>
+      <c r="G38">
+        <v>-0.04319051778861468</v>
+      </c>
+      <c r="H38">
+        <v>0.03650793734516041</v>
+      </c>
+      <c r="I38">
+        <v>-0.05024393116179727</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0205259157538303</v>
+        <v>0.008200033046040762</v>
       </c>
       <c r="C39">
-        <v>-0.05828432443474067</v>
+        <v>-0.07494299100923647</v>
       </c>
       <c r="D39">
-        <v>-0.1165395561430183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1103520767151896</v>
+      </c>
+      <c r="E39">
+        <v>0.04709758501580644</v>
+      </c>
+      <c r="F39">
+        <v>-0.004965954314045595</v>
+      </c>
+      <c r="G39">
+        <v>-0.02545645978231831</v>
+      </c>
+      <c r="H39">
+        <v>0.09640454853098235</v>
+      </c>
+      <c r="I39">
+        <v>0.05103927674089481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01149421281478272</v>
+        <v>0.01150691591304633</v>
       </c>
       <c r="C40">
-        <v>-0.01970338282672171</v>
+        <v>-0.03046789565493149</v>
       </c>
       <c r="D40">
-        <v>-0.1109938313058766</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.1030274937656398</v>
+      </c>
+      <c r="E40">
+        <v>0.03988536475528993</v>
+      </c>
+      <c r="F40">
+        <v>-0.02221880204536288</v>
+      </c>
+      <c r="G40">
+        <v>-0.09627802362432016</v>
+      </c>
+      <c r="H40">
+        <v>0.01608035969193471</v>
+      </c>
+      <c r="I40">
+        <v>-0.04434857357924143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01456840605619767</v>
+        <v>0.01274882603845986</v>
       </c>
       <c r="C41">
-        <v>-0.008355838865693939</v>
+        <v>-0.0174721754211462</v>
       </c>
       <c r="D41">
-        <v>-0.07017230291561924</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.04889476085224931</v>
+      </c>
+      <c r="E41">
+        <v>-0.02538994755992097</v>
+      </c>
+      <c r="F41">
+        <v>0.01963009256988566</v>
+      </c>
+      <c r="G41">
+        <v>-0.03932795957746701</v>
+      </c>
+      <c r="H41">
+        <v>0.02919539017745241</v>
+      </c>
+      <c r="I41">
+        <v>-0.05646536365258285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007607747743699305</v>
+        <v>0.006306672665510049</v>
       </c>
       <c r="C43">
-        <v>-0.01259184484124263</v>
+        <v>-0.01837398105091455</v>
       </c>
       <c r="D43">
-        <v>-0.08680645472612036</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.06359360206473817</v>
+      </c>
+      <c r="E43">
+        <v>-0.008973519263011388</v>
+      </c>
+      <c r="F43">
+        <v>0.02013655724173737</v>
+      </c>
+      <c r="G43">
+        <v>-0.04775169884004194</v>
+      </c>
+      <c r="H43">
+        <v>0.05977387157331202</v>
+      </c>
+      <c r="I43">
+        <v>-0.05323329320107639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01374561577079048</v>
+        <v>0.01017178871459473</v>
       </c>
       <c r="C44">
-        <v>-0.03199150868964983</v>
+        <v>-0.044330303442014</v>
       </c>
       <c r="D44">
-        <v>-0.1121835166141841</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1146300913380394</v>
+      </c>
+      <c r="E44">
+        <v>0.01823660515622013</v>
+      </c>
+      <c r="F44">
+        <v>0.02181215478540873</v>
+      </c>
+      <c r="G44">
+        <v>-0.02744273604627209</v>
+      </c>
+      <c r="H44">
+        <v>0.03719454184216256</v>
+      </c>
+      <c r="I44">
+        <v>0.05110687067040614</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.009454713112620243</v>
+        <v>0.0003351183945523825</v>
       </c>
       <c r="C46">
-        <v>-0.0304446943087689</v>
+        <v>-0.03982882990989569</v>
       </c>
       <c r="D46">
-        <v>-0.1029295718205984</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08829438425008065</v>
+      </c>
+      <c r="E46">
+        <v>0.01968355771132911</v>
+      </c>
+      <c r="F46">
+        <v>0.03004800309532054</v>
+      </c>
+      <c r="G46">
+        <v>-0.06305685648214383</v>
+      </c>
+      <c r="H46">
+        <v>0.111319338723613</v>
+      </c>
+      <c r="I46">
+        <v>-0.03996620861219412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08224581660601749</v>
+        <v>0.0387556674427061</v>
       </c>
       <c r="C47">
-        <v>-0.1069816210054135</v>
+        <v>-0.1226180288624946</v>
       </c>
       <c r="D47">
-        <v>-0.06486281354037769</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03038641615041178</v>
+      </c>
+      <c r="E47">
+        <v>-0.01778853141789701</v>
+      </c>
+      <c r="F47">
+        <v>-0.01112442121289462</v>
+      </c>
+      <c r="G47">
+        <v>0.03126263750020811</v>
+      </c>
+      <c r="H47">
+        <v>0.05393426173175637</v>
+      </c>
+      <c r="I47">
+        <v>-0.1265758974959853</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.005852615830821556</v>
+        <v>0.006615841022180765</v>
       </c>
       <c r="C48">
-        <v>-0.01704018382006545</v>
+        <v>-0.02679855509956151</v>
       </c>
       <c r="D48">
-        <v>-0.09715847441871726</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08606970151000982</v>
+      </c>
+      <c r="E48">
+        <v>-0.009295430362732176</v>
+      </c>
+      <c r="F48">
+        <v>0.04123666692455945</v>
+      </c>
+      <c r="G48">
+        <v>-0.04028981781511971</v>
+      </c>
+      <c r="H48">
+        <v>0.07695755567274486</v>
+      </c>
+      <c r="I48">
+        <v>-0.02579626555577721</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04225103763682451</v>
+        <v>0.01624660989110415</v>
       </c>
       <c r="C50">
-        <v>-0.06259869064437937</v>
+        <v>-0.07471539093075759</v>
       </c>
       <c r="D50">
-        <v>-0.07914494135031785</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05228902624463139</v>
+      </c>
+      <c r="E50">
+        <v>0.0005111117767781638</v>
+      </c>
+      <c r="F50">
+        <v>0.00948980756629509</v>
+      </c>
+      <c r="G50">
+        <v>-0.03841677323278758</v>
+      </c>
+      <c r="H50">
+        <v>0.02845336403997884</v>
+      </c>
+      <c r="I50">
+        <v>-0.1150582776906935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004540242552990857</v>
+        <v>0.0035654376546499</v>
       </c>
       <c r="C51">
-        <v>-0.007466127725781061</v>
+        <v>-0.01744511480689017</v>
       </c>
       <c r="D51">
-        <v>-0.06608685226588128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.06993043242649884</v>
+      </c>
+      <c r="E51">
+        <v>0.03652528552370442</v>
+      </c>
+      <c r="F51">
+        <v>0.03352900923172834</v>
+      </c>
+      <c r="G51">
+        <v>-0.04581583679113937</v>
+      </c>
+      <c r="H51">
+        <v>0.02786122439936091</v>
+      </c>
+      <c r="I51">
+        <v>-0.003979251931660285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1068389536787676</v>
+        <v>0.06206385288072251</v>
       </c>
       <c r="C53">
-        <v>-0.1222424022830944</v>
+        <v>-0.1527243512434532</v>
       </c>
       <c r="D53">
-        <v>-0.02192327352871936</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.009059271187835411</v>
+      </c>
+      <c r="E53">
+        <v>-0.03502891152449909</v>
+      </c>
+      <c r="F53">
+        <v>0.05410707475877227</v>
+      </c>
+      <c r="G53">
+        <v>-0.004515460202586275</v>
+      </c>
+      <c r="H53">
+        <v>0.00657140091576607</v>
+      </c>
+      <c r="I53">
+        <v>-0.08989430119862264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01678801069580605</v>
+        <v>0.01112181865986263</v>
       </c>
       <c r="C54">
-        <v>-0.02416504120640584</v>
+        <v>-0.03924204969217763</v>
       </c>
       <c r="D54">
-        <v>-0.1103406467072747</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08758723288807142</v>
+      </c>
+      <c r="E54">
+        <v>0.007916099156676164</v>
+      </c>
+      <c r="F54">
+        <v>-0.0002677270727136382</v>
+      </c>
+      <c r="G54">
+        <v>-0.0601961702507117</v>
+      </c>
+      <c r="H54">
+        <v>0.06715163476242518</v>
+      </c>
+      <c r="I54">
+        <v>-0.05928349222519326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09520870941412002</v>
+        <v>0.0496864778800739</v>
       </c>
       <c r="C55">
-        <v>-0.1019013340048941</v>
+        <v>-0.12740243580886</v>
       </c>
       <c r="D55">
-        <v>-0.008751560706480931</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0176755207395623</v>
+      </c>
+      <c r="E55">
+        <v>0.001155750104352308</v>
+      </c>
+      <c r="F55">
+        <v>0.02226677544741946</v>
+      </c>
+      <c r="G55">
+        <v>-0.02522773059813406</v>
+      </c>
+      <c r="H55">
+        <v>-0.003016924220979179</v>
+      </c>
+      <c r="I55">
+        <v>-0.08119124594719915</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1364844483073466</v>
+        <v>0.07204131810728509</v>
       </c>
       <c r="C56">
-        <v>-0.1339161724800446</v>
+        <v>-0.1812327627723686</v>
       </c>
       <c r="D56">
-        <v>-0.004030697278043769</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0220282978299643</v>
+      </c>
+      <c r="E56">
+        <v>-0.03171236572238182</v>
+      </c>
+      <c r="F56">
+        <v>0.01997270679426888</v>
+      </c>
+      <c r="G56">
+        <v>-0.05182373076188886</v>
+      </c>
+      <c r="H56">
+        <v>-0.02007797913184923</v>
+      </c>
+      <c r="I56">
+        <v>-0.1010536640245754</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01015593412485599</v>
+        <v>0.001501477073374125</v>
       </c>
       <c r="C58">
-        <v>-0.02409055556450579</v>
+        <v>-0.04728458651669253</v>
       </c>
       <c r="D58">
-        <v>-0.2175128764207172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2796617293645139</v>
+      </c>
+      <c r="E58">
+        <v>-0.0320901404325139</v>
+      </c>
+      <c r="F58">
+        <v>0.08706594550422612</v>
+      </c>
+      <c r="G58">
+        <v>-0.09116331987570742</v>
+      </c>
+      <c r="H58">
+        <v>-0.1568560936556553</v>
+      </c>
+      <c r="I58">
+        <v>0.07125814605485906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.173299652790137</v>
+        <v>0.2438975954837315</v>
       </c>
       <c r="C59">
-        <v>0.1567273461919209</v>
+        <v>0.08500706303846375</v>
       </c>
       <c r="D59">
-        <v>-0.05178837519991477</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06057750088508292</v>
+      </c>
+      <c r="E59">
+        <v>-0.02727451499575975</v>
+      </c>
+      <c r="F59">
+        <v>0.0119983291758744</v>
+      </c>
+      <c r="G59">
+        <v>0.01415150388797603</v>
+      </c>
+      <c r="H59">
+        <v>-0.02189400484536646</v>
+      </c>
+      <c r="I59">
+        <v>-0.03147436570376176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1972049831093426</v>
+        <v>0.1554597101404084</v>
       </c>
       <c r="C60">
-        <v>-0.1069891549097441</v>
+        <v>-0.1726576934745476</v>
       </c>
       <c r="D60">
-        <v>-0.1572239268597121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.08574019108865505</v>
+      </c>
+      <c r="E60">
+        <v>0.2361570986998778</v>
+      </c>
+      <c r="F60">
+        <v>-0.1750021964457839</v>
+      </c>
+      <c r="G60">
+        <v>0.2709333193036232</v>
+      </c>
+      <c r="H60">
+        <v>-0.09707810655705831</v>
+      </c>
+      <c r="I60">
+        <v>0.03326906885737979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03049172434457236</v>
+        <v>0.0147895502858876</v>
       </c>
       <c r="C61">
-        <v>-0.0561584468303639</v>
+        <v>-0.07086843741145245</v>
       </c>
       <c r="D61">
-        <v>-0.1101981300851606</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0881260523447588</v>
+      </c>
+      <c r="E61">
+        <v>0.03513996316629806</v>
+      </c>
+      <c r="F61">
+        <v>-0.0143371767667528</v>
+      </c>
+      <c r="G61">
+        <v>-0.00651509896358671</v>
+      </c>
+      <c r="H61">
+        <v>0.09439584743661723</v>
+      </c>
+      <c r="I61">
+        <v>0.002536085142820674</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01072800420088594</v>
+        <v>0.004720309472611902</v>
       </c>
       <c r="C63">
-        <v>-0.02524740265421627</v>
+        <v>-0.03480714280712428</v>
       </c>
       <c r="D63">
-        <v>-0.09659499602716141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07346529775723384</v>
+      </c>
+      <c r="E63">
+        <v>0.02427849839771834</v>
+      </c>
+      <c r="F63">
+        <v>0.02329334937658968</v>
+      </c>
+      <c r="G63">
+        <v>-0.03573512553384114</v>
+      </c>
+      <c r="H63">
+        <v>0.05027671367132404</v>
+      </c>
+      <c r="I63">
+        <v>-0.01216312129756427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05991116494393513</v>
+        <v>0.02408967727094653</v>
       </c>
       <c r="C64">
-        <v>-0.08390111191322269</v>
+        <v>-0.1040310382833132</v>
       </c>
       <c r="D64">
-        <v>-0.0452444182121416</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03625769462735124</v>
+      </c>
+      <c r="E64">
+        <v>0.02637933246741536</v>
+      </c>
+      <c r="F64">
+        <v>0.02550143610573864</v>
+      </c>
+      <c r="G64">
+        <v>0.007047823312542795</v>
+      </c>
+      <c r="H64">
+        <v>0.1085192905881487</v>
+      </c>
+      <c r="I64">
+        <v>0.02434364970922551</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02853811615137994</v>
+        <v>0.02298069343544252</v>
       </c>
       <c r="C65">
-        <v>-0.01853442192611999</v>
+        <v>-0.03737881895802923</v>
       </c>
       <c r="D65">
-        <v>-0.1206278634214625</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1102733815857257</v>
+      </c>
+      <c r="E65">
+        <v>0.03456151916319905</v>
+      </c>
+      <c r="F65">
+        <v>0.0009396273404732219</v>
+      </c>
+      <c r="G65">
+        <v>-0.003726936194484833</v>
+      </c>
+      <c r="H65">
+        <v>0.01658945140005225</v>
+      </c>
+      <c r="I65">
+        <v>-0.01265763830113851</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02396951362772482</v>
+        <v>0.007221290868464432</v>
       </c>
       <c r="C66">
-        <v>-0.0644554962762888</v>
+        <v>-0.08812726004206262</v>
       </c>
       <c r="D66">
-        <v>-0.1209147774217882</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.132203847534738</v>
+      </c>
+      <c r="E66">
+        <v>0.03433091040271453</v>
+      </c>
+      <c r="F66">
+        <v>-0.01462941346832905</v>
+      </c>
+      <c r="G66">
+        <v>-0.0224010008233878</v>
+      </c>
+      <c r="H66">
+        <v>0.05245385067774904</v>
+      </c>
+      <c r="I66">
+        <v>0.06101815456560644</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02803165538595553</v>
+        <v>0.02553985489863332</v>
       </c>
       <c r="C67">
-        <v>-0.02167542446602314</v>
+        <v>-0.02995976652871719</v>
       </c>
       <c r="D67">
-        <v>-0.0516222124190877</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03803727919590988</v>
+      </c>
+      <c r="E67">
+        <v>0.00156540041021459</v>
+      </c>
+      <c r="F67">
+        <v>-0.02820706635395522</v>
+      </c>
+      <c r="G67">
+        <v>-0.03638672209241606</v>
+      </c>
+      <c r="H67">
+        <v>0.05235559900494553</v>
+      </c>
+      <c r="I67">
+        <v>-0.03927921391284134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2087975987837009</v>
+        <v>0.2694975514266732</v>
       </c>
       <c r="C68">
-        <v>0.1691984931236955</v>
+        <v>0.0847336912307315</v>
       </c>
       <c r="D68">
-        <v>-0.03648502727072861</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02863258821548448</v>
+      </c>
+      <c r="E68">
+        <v>0.005777718132302763</v>
+      </c>
+      <c r="F68">
+        <v>0.02531356752223969</v>
+      </c>
+      <c r="G68">
+        <v>-0.03645208410700002</v>
+      </c>
+      <c r="H68">
+        <v>-0.06122178752890282</v>
+      </c>
+      <c r="I68">
+        <v>-0.1148237848583121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06212010946861399</v>
+        <v>0.02552943684538876</v>
       </c>
       <c r="C69">
-        <v>-0.1164154378241673</v>
+        <v>-0.1219812521850538</v>
       </c>
       <c r="D69">
-        <v>-0.08780251835211052</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0453876000533549</v>
+      </c>
+      <c r="E69">
+        <v>0.004185780289179464</v>
+      </c>
+      <c r="F69">
+        <v>-0.012471483372628</v>
+      </c>
+      <c r="G69">
+        <v>0.01290538781368423</v>
+      </c>
+      <c r="H69">
+        <v>0.04966043510092705</v>
+      </c>
+      <c r="I69">
+        <v>-0.08358120151327607</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2109290261122926</v>
+        <v>0.2688408525311273</v>
       </c>
       <c r="C71">
-        <v>0.185165216152984</v>
+        <v>0.09760024549750565</v>
       </c>
       <c r="D71">
-        <v>-0.03220786676602393</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02120591707671571</v>
+      </c>
+      <c r="E71">
+        <v>-0.008856512853994501</v>
+      </c>
+      <c r="F71">
+        <v>0.0186945353119109</v>
+      </c>
+      <c r="G71">
+        <v>-0.03940764157873931</v>
+      </c>
+      <c r="H71">
+        <v>-0.01217455896695976</v>
+      </c>
+      <c r="I71">
+        <v>-0.171648922930925</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1045634756081414</v>
+        <v>0.06225837612885205</v>
       </c>
       <c r="C72">
-        <v>-0.07432856777825636</v>
+        <v>-0.1199962930431687</v>
       </c>
       <c r="D72">
-        <v>-0.09528683183853549</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06953244700661197</v>
+      </c>
+      <c r="E72">
+        <v>0.09049922335249408</v>
+      </c>
+      <c r="F72">
+        <v>-0.01010034395105977</v>
+      </c>
+      <c r="G72">
+        <v>-0.007906586590325294</v>
+      </c>
+      <c r="H72">
+        <v>0.05315416745057767</v>
+      </c>
+      <c r="I72">
+        <v>0.04580277320619543</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1793461657840345</v>
+        <v>0.1425006786483314</v>
       </c>
       <c r="C73">
-        <v>-0.0638333461479394</v>
+        <v>-0.137311608139662</v>
       </c>
       <c r="D73">
-        <v>-0.2081961376014385</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09335834327757314</v>
+      </c>
+      <c r="E73">
+        <v>0.3954024960593545</v>
+      </c>
+      <c r="F73">
+        <v>-0.2627746299322485</v>
+      </c>
+      <c r="G73">
+        <v>0.451969542068127</v>
+      </c>
+      <c r="H73">
+        <v>0.003990611052005814</v>
+      </c>
+      <c r="I73">
+        <v>0.09610002927756627</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1069259578931232</v>
+        <v>0.05717174138429845</v>
       </c>
       <c r="C74">
-        <v>-0.1100858677839957</v>
+        <v>-0.140231851933034</v>
       </c>
       <c r="D74">
-        <v>0.01813062030297529</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03583142087766474</v>
+      </c>
+      <c r="E74">
+        <v>-0.01388427048813762</v>
+      </c>
+      <c r="F74">
+        <v>0.05260605484455672</v>
+      </c>
+      <c r="G74">
+        <v>-0.00471217875284062</v>
+      </c>
+      <c r="H74">
+        <v>-0.008200068958961975</v>
+      </c>
+      <c r="I74">
+        <v>-0.1060469754121898</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2370598740850156</v>
+        <v>0.1314312386416255</v>
       </c>
       <c r="C75">
-        <v>-0.194801561896378</v>
+        <v>-0.2640018045905254</v>
       </c>
       <c r="D75">
-        <v>0.1084261415032359</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1350921190808644</v>
+      </c>
+      <c r="E75">
+        <v>-0.08659123229305127</v>
+      </c>
+      <c r="F75">
+        <v>-0.02916484781457749</v>
+      </c>
+      <c r="G75">
+        <v>-0.08604535118674492</v>
+      </c>
+      <c r="H75">
+        <v>-0.03000986895640327</v>
+      </c>
+      <c r="I75">
+        <v>-0.08745350676382876</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1437719723952163</v>
+        <v>0.07328691569995877</v>
       </c>
       <c r="C76">
-        <v>-0.1364559756564049</v>
+        <v>-0.1810676589273255</v>
       </c>
       <c r="D76">
-        <v>-0.01213412520158184</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02648899853597482</v>
+      </c>
+      <c r="E76">
+        <v>-0.02987306667929721</v>
+      </c>
+      <c r="F76">
+        <v>0.01317556550257333</v>
+      </c>
+      <c r="G76">
+        <v>-0.06415522902409092</v>
+      </c>
+      <c r="H76">
+        <v>0.01445039008436906</v>
+      </c>
+      <c r="I76">
+        <v>-0.110543816406406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02337494495487691</v>
+        <v>0.031484639041858</v>
       </c>
       <c r="C77">
-        <v>-0.08241591581077558</v>
+        <v>-0.09532436237235703</v>
       </c>
       <c r="D77">
-        <v>-0.06902427694677209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.2480588710111602</v>
+      </c>
+      <c r="E77">
+        <v>-0.7544830032748315</v>
+      </c>
+      <c r="F77">
+        <v>-0.3519741521998315</v>
+      </c>
+      <c r="G77">
+        <v>0.3641241853468394</v>
+      </c>
+      <c r="H77">
+        <v>-0.1438197854120063</v>
+      </c>
+      <c r="I77">
+        <v>-0.01371440652792548</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02339046121246495</v>
+        <v>0.01554163444570728</v>
       </c>
       <c r="C78">
-        <v>-0.07317047276667143</v>
+        <v>-0.08519525697627987</v>
       </c>
       <c r="D78">
-        <v>-0.1616495824439585</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1410705314983481</v>
+      </c>
+      <c r="E78">
+        <v>0.04420971579013943</v>
+      </c>
+      <c r="F78">
+        <v>0.04299093283573788</v>
+      </c>
+      <c r="G78">
+        <v>-0.03091932332267144</v>
+      </c>
+      <c r="H78">
+        <v>0.01508184238035828</v>
+      </c>
+      <c r="I78">
+        <v>-0.009842951489938367</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.08275795556720851</v>
+        <v>0.03944053415493447</v>
       </c>
       <c r="C79">
-        <v>-0.1516354361439784</v>
+        <v>-0.1757368016379458</v>
       </c>
       <c r="D79">
-        <v>0.08603460084880601</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05392647421396165</v>
+      </c>
+      <c r="E79">
+        <v>-0.1130383044956955</v>
+      </c>
+      <c r="F79">
+        <v>0.7916178969779135</v>
+      </c>
+      <c r="G79">
+        <v>0.4642028820915248</v>
+      </c>
+      <c r="H79">
+        <v>-0.08487805864833678</v>
+      </c>
+      <c r="I79">
+        <v>0.1638556405677899</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.006643978481062598</v>
+        <v>0.0006617812985006461</v>
       </c>
       <c r="C80">
-        <v>-0.04688244445801044</v>
+        <v>-0.04820245627736255</v>
       </c>
       <c r="D80">
-        <v>-0.04703767798265282</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04813624160614986</v>
+      </c>
+      <c r="E80">
+        <v>0.02082708768673552</v>
+      </c>
+      <c r="F80">
+        <v>0.01065800034958475</v>
+      </c>
+      <c r="G80">
+        <v>-0.04641135783229813</v>
+      </c>
+      <c r="H80">
+        <v>-0.001629252650701361</v>
+      </c>
+      <c r="I80">
+        <v>-0.05218964774005029</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.124503955476443</v>
+        <v>0.05865066586800487</v>
       </c>
       <c r="C81">
-        <v>-0.1307178546720334</v>
+        <v>-0.1642523561458569</v>
       </c>
       <c r="D81">
-        <v>0.06336597302957908</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07646182111460487</v>
+      </c>
+      <c r="E81">
+        <v>-0.0705156052096174</v>
+      </c>
+      <c r="F81">
+        <v>0.04774594475245038</v>
+      </c>
+      <c r="G81">
+        <v>-0.05977442984234722</v>
+      </c>
+      <c r="H81">
+        <v>0.04229586872678102</v>
+      </c>
+      <c r="I81">
+        <v>-0.136592229669256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2513844330040689</v>
+        <v>0.1131485751055621</v>
       </c>
       <c r="C82">
-        <v>-0.2947686551815019</v>
+        <v>-0.3275724959747384</v>
       </c>
       <c r="D82">
-        <v>0.2159841663655832</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2247777375894619</v>
+      </c>
+      <c r="E82">
+        <v>-0.04175315146860786</v>
+      </c>
+      <c r="F82">
+        <v>-0.1116483663334683</v>
+      </c>
+      <c r="G82">
+        <v>-0.09084383732495629</v>
+      </c>
+      <c r="H82">
+        <v>0.07401952362531901</v>
+      </c>
+      <c r="I82">
+        <v>-0.08421051563732539</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.002551078303576066</v>
+        <v>-0.00578456731726807</v>
       </c>
       <c r="C83">
-        <v>-0.05507127457010648</v>
+        <v>-0.03814330072869675</v>
       </c>
       <c r="D83">
-        <v>-0.02775651302477</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04517585604298965</v>
+      </c>
+      <c r="E83">
+        <v>-0.08997298621468655</v>
+      </c>
+      <c r="F83">
+        <v>0.02040440085921825</v>
+      </c>
+      <c r="G83">
+        <v>-0.04595818975910387</v>
+      </c>
+      <c r="H83">
+        <v>0.03842142653075233</v>
+      </c>
+      <c r="I83">
+        <v>-0.0434308027442705</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>5.301885743771579e-06</v>
+        <v>-0.001090441108439109</v>
       </c>
       <c r="C84">
-        <v>-0.00047668835914389</v>
+        <v>-0.0139858816142929</v>
       </c>
       <c r="D84">
-        <v>-6.892894836587977e-05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03590080542636902</v>
+      </c>
+      <c r="E84">
+        <v>-0.01010840623563801</v>
+      </c>
+      <c r="F84">
+        <v>0.01310990173878814</v>
+      </c>
+      <c r="G84">
+        <v>-0.03773275879093159</v>
+      </c>
+      <c r="H84">
+        <v>-0.02173388504042967</v>
+      </c>
+      <c r="I84">
+        <v>0.0301575855407823</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1466854224706805</v>
+        <v>0.07146910318595653</v>
       </c>
       <c r="C85">
-        <v>-0.1433524523176364</v>
+        <v>-0.1895906693407176</v>
       </c>
       <c r="D85">
-        <v>0.04689302262433832</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08785763578454682</v>
+      </c>
+      <c r="E85">
+        <v>-0.003533059366748334</v>
+      </c>
+      <c r="F85">
+        <v>0.07585183349067443</v>
+      </c>
+      <c r="G85">
+        <v>-0.02884192902877636</v>
+      </c>
+      <c r="H85">
+        <v>-0.01400461762283241</v>
+      </c>
+      <c r="I85">
+        <v>-0.1257124353530622</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01362240681787326</v>
+        <v>0.01138953098221331</v>
       </c>
       <c r="C86">
-        <v>-0.01913271880208213</v>
+        <v>-0.02918450256050864</v>
       </c>
       <c r="D86">
-        <v>-0.0820879034435924</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1009199957761106</v>
+      </c>
+      <c r="E86">
+        <v>-0.04444951581770126</v>
+      </c>
+      <c r="F86">
+        <v>-0.02225325378694017</v>
+      </c>
+      <c r="G86">
+        <v>0.02791399688271055</v>
+      </c>
+      <c r="H86">
+        <v>0.01253322678887299</v>
+      </c>
+      <c r="I86">
+        <v>-0.069624962003856</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01698740624452921</v>
+        <v>0.01330398983689676</v>
       </c>
       <c r="C87">
-        <v>-0.02214128256979066</v>
+        <v>-0.04697192442580747</v>
       </c>
       <c r="D87">
-        <v>-0.1221828471541819</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1447646985009935</v>
+      </c>
+      <c r="E87">
+        <v>-0.01385131687267783</v>
+      </c>
+      <c r="F87">
+        <v>0.04670046270601704</v>
+      </c>
+      <c r="G87">
+        <v>-0.07838433000849419</v>
+      </c>
+      <c r="H87">
+        <v>0.00160809496804173</v>
+      </c>
+      <c r="I87">
+        <v>0.08956003558317217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0576391060802648</v>
+        <v>0.03224729132795089</v>
       </c>
       <c r="C88">
-        <v>-0.05057559189649974</v>
+        <v>-0.06934175153998387</v>
       </c>
       <c r="D88">
-        <v>-0.04890911036114084</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01494284057216661</v>
+      </c>
+      <c r="E88">
+        <v>0.01049692831068839</v>
+      </c>
+      <c r="F88">
+        <v>0.02993373470572496</v>
+      </c>
+      <c r="G88">
+        <v>-0.02042115497545589</v>
+      </c>
+      <c r="H88">
+        <v>0.03605477769650869</v>
+      </c>
+      <c r="I88">
+        <v>-0.06611865489976511</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3161103229164993</v>
+        <v>0.4091218035421731</v>
       </c>
       <c r="C89">
-        <v>0.3401735703587317</v>
+        <v>0.1890787098162351</v>
       </c>
       <c r="D89">
-        <v>-0.04118543865359314</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.03002216802112101</v>
+      </c>
+      <c r="E89">
+        <v>-0.02266688372805535</v>
+      </c>
+      <c r="F89">
+        <v>0.07046681489246803</v>
+      </c>
+      <c r="G89">
+        <v>-0.08089759709634078</v>
+      </c>
+      <c r="H89">
+        <v>0.1707166645798359</v>
+      </c>
+      <c r="I89">
+        <v>0.4325181211704861</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2516600448148695</v>
+        <v>0.3114505421555894</v>
       </c>
       <c r="C90">
-        <v>0.2437664638968664</v>
+        <v>0.1233735801500129</v>
       </c>
       <c r="D90">
-        <v>-0.03310438076360066</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02850134764037983</v>
+      </c>
+      <c r="E90">
+        <v>-0.01839198719210574</v>
+      </c>
+      <c r="F90">
+        <v>-0.01789442892510298</v>
+      </c>
+      <c r="G90">
+        <v>-0.05396790537431118</v>
+      </c>
+      <c r="H90">
+        <v>-0.04435547558989068</v>
+      </c>
+      <c r="I90">
+        <v>-0.09349075115485678</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1573634745261023</v>
+        <v>0.08012457373226013</v>
       </c>
       <c r="C91">
-        <v>-0.1791987873545848</v>
+        <v>-0.2076124620537677</v>
       </c>
       <c r="D91">
-        <v>0.1022766331287077</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1084241440304035</v>
+      </c>
+      <c r="E91">
+        <v>-0.07020545004152356</v>
+      </c>
+      <c r="F91">
+        <v>0.07629411228544765</v>
+      </c>
+      <c r="G91">
+        <v>-0.006887856037519749</v>
+      </c>
+      <c r="H91">
+        <v>-0.004629878268340784</v>
+      </c>
+      <c r="I91">
+        <v>-0.1233407390720561</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2256734220699929</v>
+        <v>0.3221388844548811</v>
       </c>
       <c r="C92">
-        <v>0.2557698972828684</v>
+        <v>0.1582471456006781</v>
       </c>
       <c r="D92">
-        <v>0.04923491594241552</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.006560746630412504</v>
+      </c>
+      <c r="E92">
+        <v>-0.08562066436388839</v>
+      </c>
+      <c r="F92">
+        <v>0.02504476931930127</v>
+      </c>
+      <c r="G92">
+        <v>-0.04758191096240333</v>
+      </c>
+      <c r="H92">
+        <v>0.004246054579202804</v>
+      </c>
+      <c r="I92">
+        <v>0.1002952085460998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.272998928664577</v>
+        <v>0.3285993404966578</v>
       </c>
       <c r="C93">
-        <v>0.2499017793774425</v>
+        <v>0.1272656976076079</v>
       </c>
       <c r="D93">
-        <v>-0.01355463345166499</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01269114376430277</v>
+      </c>
+      <c r="E93">
+        <v>0.02695498141276058</v>
+      </c>
+      <c r="F93">
+        <v>0.01117348096840294</v>
+      </c>
+      <c r="G93">
+        <v>0.0126227487750154</v>
+      </c>
+      <c r="H93">
+        <v>-0.01613001092160381</v>
+      </c>
+      <c r="I93">
+        <v>-0.1338945018523396</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3061212159516331</v>
+        <v>0.1597555144169849</v>
       </c>
       <c r="C94">
-        <v>-0.2601405467814738</v>
+        <v>-0.3526826072823339</v>
       </c>
       <c r="D94">
-        <v>0.3625672478028599</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3583521703930639</v>
+      </c>
+      <c r="E94">
+        <v>-0.04576384375264498</v>
+      </c>
+      <c r="F94">
+        <v>-0.1073869671415529</v>
+      </c>
+      <c r="G94">
+        <v>-0.279127047697977</v>
+      </c>
+      <c r="H94">
+        <v>-0.1594114727999317</v>
+      </c>
+      <c r="I94">
+        <v>0.4419429317134181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02528927662984152</v>
+        <v>0.02373937809997665</v>
       </c>
       <c r="C95">
-        <v>-0.03548172771358658</v>
+        <v>-0.06141703835035043</v>
       </c>
       <c r="D95">
-        <v>-0.08191734173160563</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1195788161096625</v>
+      </c>
+      <c r="E95">
+        <v>-0.2058143896702677</v>
+      </c>
+      <c r="F95">
+        <v>-0.0691245594917704</v>
+      </c>
+      <c r="G95">
+        <v>-0.02115797000583001</v>
+      </c>
+      <c r="H95">
+        <v>0.4417478247913419</v>
+      </c>
+      <c r="I95">
+        <v>0.4234676353001681</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0002496288709187063</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0001441212288539948</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0001156038130525436</v>
+      </c>
+      <c r="E97">
+        <v>0.000391658093670589</v>
+      </c>
+      <c r="F97">
+        <v>-0.001880025754494713</v>
+      </c>
+      <c r="G97">
+        <v>0.0007125919026784742</v>
+      </c>
+      <c r="H97">
+        <v>-0.001320392025418311</v>
+      </c>
+      <c r="I97">
+        <v>0.0005839837897841132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1475688112222061</v>
+        <v>0.1187263672423124</v>
       </c>
       <c r="C98">
-        <v>-0.07297952872473285</v>
+        <v>-0.1360740616874318</v>
       </c>
       <c r="D98">
-        <v>-0.1123073851182513</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06322603961230962</v>
+      </c>
+      <c r="E98">
+        <v>0.2708612149784129</v>
+      </c>
+      <c r="F98">
+        <v>-0.1676811483659376</v>
+      </c>
+      <c r="G98">
+        <v>0.2755890385740713</v>
+      </c>
+      <c r="H98">
+        <v>-0.05502823040843189</v>
+      </c>
+      <c r="I98">
+        <v>0.06410582419436595</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001507056229998911</v>
+        <v>-0.0001033171003447249</v>
       </c>
       <c r="C101">
-        <v>-0.02174776458880651</v>
+        <v>-0.02899213231818397</v>
       </c>
       <c r="D101">
-        <v>-0.1029480439729527</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1014680699534618</v>
+      </c>
+      <c r="E101">
+        <v>0.03490071443936708</v>
+      </c>
+      <c r="F101">
+        <v>0.03401155922055737</v>
+      </c>
+      <c r="G101">
+        <v>-0.05303912324789756</v>
+      </c>
+      <c r="H101">
+        <v>0.1007540965987616</v>
+      </c>
+      <c r="I101">
+        <v>-0.0210269515182498</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1109182149463648</v>
+        <v>0.04354609809931027</v>
       </c>
       <c r="C102">
-        <v>-0.148515128075943</v>
+        <v>-0.1527959802992463</v>
       </c>
       <c r="D102">
-        <v>0.07480880555251211</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.09116702704271308</v>
+      </c>
+      <c r="E102">
+        <v>-0.03024336967408187</v>
+      </c>
+      <c r="F102">
+        <v>-0.05931528164819933</v>
+      </c>
+      <c r="G102">
+        <v>-0.01167827458782015</v>
+      </c>
+      <c r="H102">
+        <v>0.0530524486296973</v>
+      </c>
+      <c r="I102">
+        <v>-0.03089747397028694</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
